--- a/server/files/vacations_Professionnel et Technique.xlsx
+++ b/server/files/vacations_Professionnel et Technique.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="371">
   <si>
     <t>REPOBILIKAN'I MADAGASIKARA</t>
   </si>
@@ -31,13 +31,13 @@
     <t>UNIVERSITÉ DE TOLIARA</t>
   </si>
   <si>
-    <t>PRESIDENCE</t>
+    <t>OFFICE DU BACCALAUREAT</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>BACCALAURÉAT DE L'ENSEIGNEMENT TECHNIQUE - 2025</t>
+    <t>BACCALAUREAT: - 2025</t>
   </si>
   <si>
     <t>VACATION DES CORRECTEURS - MATIÈRES PROFESSIONNEL ET TECHNIQUE</t>
@@ -46,43 +46,1084 @@
     <t>Nom et Prénom(s)</t>
   </si>
   <si>
+    <t>Matières</t>
+  </si>
+  <si>
+    <t>Spécialité</t>
+  </si>
+  <si>
+    <t>Pochettes</t>
+  </si>
+  <si>
+    <t>Nb de copies</t>
+  </si>
+  <si>
+    <t>Montant</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Matières</t>
-  </si>
-  <si>
-    <t>Pochettes</t>
-  </si>
-  <si>
-    <t>Nb de copies</t>
-  </si>
-  <si>
-    <t>Montant</t>
-  </si>
-  <si>
-    <t>Razz Cyciah</t>
-  </si>
-  <si>
-    <t>Mathématiques Générales</t>
-  </si>
-  <si>
-    <t>KOP44G</t>
-  </si>
-  <si>
-    <t>Jobs Loic</t>
-  </si>
-  <si>
-    <t>Sciences Naturelles</t>
-  </si>
-  <si>
-    <t>POK56K</t>
-  </si>
-  <si>
-    <t>POG99</t>
+    <t>ACHILE -</t>
+  </si>
+  <si>
+    <t>264 000 Ar</t>
+  </si>
+  <si>
+    <t>Mathématique</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>SSMT11</t>
+  </si>
+  <si>
+    <t>44 000 Ar</t>
+  </si>
+  <si>
+    <t>TCNB</t>
+  </si>
+  <si>
+    <t>TNMT11</t>
+  </si>
+  <si>
+    <t>PCBTP</t>
+  </si>
+  <si>
+    <t>PPMT11</t>
+  </si>
+  <si>
+    <t>TOM</t>
+  </si>
+  <si>
+    <t>TOMT11</t>
+  </si>
+  <si>
+    <t>TMEL</t>
+  </si>
+  <si>
+    <t>TLMT12</t>
+  </si>
+  <si>
+    <t>TPFM</t>
+  </si>
+  <si>
+    <t>TMMT11</t>
+  </si>
+  <si>
+    <t>ANDRIAMITANDRITENA Martin Etienne</t>
+  </si>
+  <si>
+    <t>235 400 Ar</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>TGMT11</t>
+  </si>
+  <si>
+    <t>TAMB</t>
+  </si>
+  <si>
+    <t>TBMT11</t>
+  </si>
+  <si>
+    <t>TEV</t>
+  </si>
+  <si>
+    <t>TVMT11</t>
+  </si>
+  <si>
+    <t>TMA</t>
+  </si>
+  <si>
+    <t>TAMT22</t>
+  </si>
+  <si>
+    <t>CCBTP</t>
+  </si>
+  <si>
+    <t>CPMT12/CPMT22</t>
+  </si>
+  <si>
+    <t>59 400 Ar</t>
+  </si>
+  <si>
+    <t>ANDRIATSILAVINA Bruno</t>
+  </si>
+  <si>
+    <t>88 000 Ar</t>
+  </si>
+  <si>
+    <t>Métré Organisation Exploitation</t>
+  </si>
+  <si>
+    <t>CPMOE22</t>
+  </si>
+  <si>
+    <t>Dessin</t>
+  </si>
+  <si>
+    <t>CPDS22</t>
+  </si>
+  <si>
+    <t>ANDRIAVAHINY Ulrich</t>
+  </si>
+  <si>
+    <t>160 900 Ar</t>
+  </si>
+  <si>
+    <t>Technologie d'Automobile</t>
+  </si>
+  <si>
+    <t>TATA12/TATA22</t>
+  </si>
+  <si>
+    <t>72 900 Ar</t>
+  </si>
+  <si>
+    <t>Machinisme Agricole</t>
+  </si>
+  <si>
+    <t>TGMA11</t>
+  </si>
+  <si>
+    <t>Analyse de Réparation</t>
+  </si>
+  <si>
+    <t>TAANL</t>
+  </si>
+  <si>
+    <t>BERTRAND Bonaventure</t>
+  </si>
+  <si>
+    <t>176 000 Ar</t>
+  </si>
+  <si>
+    <t>Etude d'Equipement</t>
+  </si>
+  <si>
+    <t>TLEE11</t>
+  </si>
+  <si>
+    <t>Automatisme Industriel</t>
+  </si>
+  <si>
+    <t>TGI</t>
+  </si>
+  <si>
+    <t>TIAI11</t>
+  </si>
+  <si>
+    <t>Automatisme Schéma</t>
+  </si>
+  <si>
+    <t>TLAS11</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>TLIM11</t>
+  </si>
+  <si>
+    <t>DAMA Arsène Gabriel Henry Clay</t>
+  </si>
+  <si>
+    <t>Anglais</t>
+  </si>
+  <si>
+    <t>TIAG11</t>
+  </si>
+  <si>
+    <t>TGC</t>
+  </si>
+  <si>
+    <t>TCAG11</t>
+  </si>
+  <si>
+    <t>TTER</t>
+  </si>
+  <si>
+    <t>TRAG11</t>
+  </si>
+  <si>
+    <t>SSAG11</t>
+  </si>
+  <si>
+    <t>ELANIRINA Fanomezantsoa Pascaline</t>
+  </si>
+  <si>
+    <t>Prise Rapide de Parole</t>
+  </si>
+  <si>
+    <t>SSPRP11</t>
+  </si>
+  <si>
+    <t>Organisation administrative</t>
+  </si>
+  <si>
+    <t>SSOA11</t>
+  </si>
+  <si>
+    <t>EZIMO -</t>
+  </si>
+  <si>
+    <t>132 000 Ar</t>
+  </si>
+  <si>
+    <t>Méthodes d'Usinage</t>
+  </si>
+  <si>
+    <t>TMMI11</t>
+  </si>
+  <si>
+    <t>Technique de Production</t>
+  </si>
+  <si>
+    <t>TMTO11</t>
+  </si>
+  <si>
+    <t>Technologie</t>
+  </si>
+  <si>
+    <t>TMTCN11</t>
+  </si>
+  <si>
+    <t>FANOMEZA Razaf Clément</t>
+  </si>
+  <si>
+    <t>TVMA11</t>
+  </si>
+  <si>
+    <t>KASOPEA Pascal</t>
+  </si>
+  <si>
+    <t>546 400 Ar</t>
+  </si>
+  <si>
+    <t>Mécanique - RDM</t>
+  </si>
+  <si>
+    <t>TCRDM11</t>
+  </si>
+  <si>
+    <t>CPRDM12/CPRDM22</t>
+  </si>
+  <si>
+    <t>Topographie</t>
+  </si>
+  <si>
+    <t>PPTOP11</t>
+  </si>
+  <si>
+    <t>CPMOE12</t>
+  </si>
+  <si>
+    <t>45 000 Ar</t>
+  </si>
+  <si>
+    <t>Etude de Réalisation</t>
+  </si>
+  <si>
+    <t>PPER11</t>
+  </si>
+  <si>
+    <t>PPMOE11</t>
+  </si>
+  <si>
+    <t>PPRDM11</t>
+  </si>
+  <si>
+    <t>Travaux Pratiques</t>
+  </si>
+  <si>
+    <t>CPTP11</t>
+  </si>
+  <si>
+    <t>CPER12</t>
+  </si>
+  <si>
+    <t>CPTOP12</t>
+  </si>
+  <si>
+    <t>Hydraulique</t>
+  </si>
+  <si>
+    <t>CPHY22</t>
+  </si>
+  <si>
+    <t>PPHY11</t>
+  </si>
+  <si>
+    <t>LAHANDROAZAE Edwige</t>
+  </si>
+  <si>
+    <t>135 800 Ar</t>
+  </si>
+  <si>
+    <t>Philosophie</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>CGPH14/CGPH34/CGPH44</t>
+  </si>
+  <si>
+    <t>91 800 Ar</t>
+  </si>
+  <si>
+    <t>TCPH11</t>
+  </si>
+  <si>
+    <t>LALAO MAMITIANDRENIBE Lydwin Joseph</t>
+  </si>
+  <si>
+    <t>165 600 Ar</t>
+  </si>
+  <si>
+    <t>Théorique Education Physique et Sportive</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>DEPS13/DEPS23/DEPS33</t>
+  </si>
+  <si>
+    <t>120 600 Ar</t>
+  </si>
+  <si>
+    <t>CEPS12</t>
+  </si>
+  <si>
+    <t>LIPOHAKO SINISINY Fémine Paulin</t>
+  </si>
+  <si>
+    <t>136 800 Ar</t>
+  </si>
+  <si>
+    <t>Droit Social</t>
+  </si>
+  <si>
+    <t>CGDS14/CGDS24/CGDS34/CGDS44</t>
+  </si>
+  <si>
+    <t>LONGOARIMALALA Ernestine Yollande</t>
+  </si>
+  <si>
+    <t>179 000 Ar</t>
+  </si>
+  <si>
+    <t>CGAG14/CGAG34</t>
+  </si>
+  <si>
+    <t>90 000 Ar</t>
+  </si>
+  <si>
+    <t>PPAG11</t>
+  </si>
+  <si>
+    <t>CPAG12</t>
+  </si>
+  <si>
+    <t>MANANDAHATSY Paul de la Croix</t>
+  </si>
+  <si>
+    <t>177 000 Ar</t>
+  </si>
+  <si>
+    <t>SSPH11</t>
+  </si>
+  <si>
+    <t>TRPH11</t>
+  </si>
+  <si>
+    <t>TIPH11</t>
+  </si>
+  <si>
+    <t>CGPH24</t>
+  </si>
+  <si>
+    <t>NACER Andriamalagasy Désiré</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>TIFR11</t>
+  </si>
+  <si>
+    <t>TCFR11</t>
+  </si>
+  <si>
+    <t>ONJANIRINA Herivola Victorien</t>
+  </si>
+  <si>
+    <t>Physique-Chimie</t>
+  </si>
+  <si>
+    <t>TMPC11</t>
+  </si>
+  <si>
+    <t>TAPC22</t>
+  </si>
+  <si>
+    <t>PPPC11</t>
+  </si>
+  <si>
+    <t>CPPC22</t>
+  </si>
+  <si>
+    <t>RADIMISON Jean Radaky</t>
+  </si>
+  <si>
+    <t>266 000 Ar</t>
+  </si>
+  <si>
+    <t>PPDS11</t>
+  </si>
+  <si>
+    <t>PPTCN11</t>
+  </si>
+  <si>
+    <t>TCDS11</t>
+  </si>
+  <si>
+    <t>CPTCN12</t>
+  </si>
+  <si>
+    <t>TCTCN11</t>
+  </si>
+  <si>
+    <t>CPDS12</t>
+  </si>
+  <si>
+    <t>RAHARIMANANA Dejean</t>
+  </si>
+  <si>
+    <t>Dessin &amp; Technologie de Construction</t>
+  </si>
+  <si>
+    <t>TODC11</t>
+  </si>
+  <si>
+    <t>Traçage</t>
+  </si>
+  <si>
+    <t>TOTR11</t>
+  </si>
+  <si>
+    <t>RAJAONARIVELO Lova Nirina</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>TBAL11</t>
+  </si>
+  <si>
+    <t>Pratique de Réalisation</t>
+  </si>
+  <si>
+    <t>TBANL8/1</t>
+  </si>
+  <si>
+    <t>RAKOTONARIVO Paul Isidore</t>
+  </si>
+  <si>
+    <t>CPTOP22</t>
+  </si>
+  <si>
+    <t>CPHY12</t>
+  </si>
+  <si>
+    <t>Hydraulique Agricole</t>
+  </si>
+  <si>
+    <t>TVHA11</t>
+  </si>
+  <si>
+    <t>TGHA11</t>
+  </si>
+  <si>
+    <t>RAKOTONIRINA Henri Manamikely</t>
+  </si>
+  <si>
+    <t>TOTP11</t>
+  </si>
+  <si>
+    <t>Technologie Générale &amp; de Spécialité</t>
+  </si>
+  <si>
+    <t>TOTGS11</t>
+  </si>
+  <si>
+    <t>Analyse &amp; Organisation de Production</t>
+  </si>
+  <si>
+    <t>TOAOP11</t>
+  </si>
+  <si>
+    <t>RAKOTOZAFY Louis Charly</t>
+  </si>
+  <si>
+    <t>TLPC11</t>
+  </si>
+  <si>
+    <t>TNPC11</t>
+  </si>
+  <si>
+    <t>TOPC11</t>
+  </si>
+  <si>
+    <t>TBPC11</t>
+  </si>
+  <si>
+    <t>RAMANAMPAMONJY Soloherindrainy</t>
+  </si>
+  <si>
+    <t>354 000 Ar</t>
+  </si>
+  <si>
+    <t>Malagasy</t>
+  </si>
+  <si>
+    <t>CGMG14</t>
+  </si>
+  <si>
+    <t>TIMG11</t>
+  </si>
+  <si>
+    <t>SSMG11</t>
+  </si>
+  <si>
+    <t>TOMG11</t>
+  </si>
+  <si>
+    <t>TCMG11</t>
+  </si>
+  <si>
+    <t>TLMG11</t>
+  </si>
+  <si>
+    <t>TMMG11</t>
+  </si>
+  <si>
+    <t>TAMG12</t>
+  </si>
+  <si>
+    <t>RAMANANTSOA Georgia</t>
+  </si>
+  <si>
+    <t>267 800 Ar</t>
+  </si>
+  <si>
+    <t>PPMG11</t>
+  </si>
+  <si>
+    <t>CPMG22</t>
+  </si>
+  <si>
+    <t>TRMG11</t>
+  </si>
+  <si>
+    <t>CGMG24/CGMG34/CGMG44</t>
+  </si>
+  <si>
+    <t>TNMG11</t>
+  </si>
+  <si>
+    <t>RAMAROLAHY Nandrasana Arnot</t>
+  </si>
+  <si>
+    <t>Dessin Industriel</t>
+  </si>
+  <si>
+    <t>TIDI11</t>
+  </si>
+  <si>
+    <t>TLDI11</t>
+  </si>
+  <si>
+    <t>TARDM12/TARDM22</t>
+  </si>
+  <si>
+    <t>RAMBOLATIANA Bienvenue Fulgence</t>
+  </si>
+  <si>
+    <t>TMDC11</t>
+  </si>
+  <si>
+    <t>TMRDM11</t>
+  </si>
+  <si>
+    <t>TITCN11</t>
+  </si>
+  <si>
+    <t>RANDRIANANDRASANA Jean Claude</t>
+  </si>
+  <si>
+    <t>TVAG11</t>
+  </si>
+  <si>
+    <t>TGAG11</t>
+  </si>
+  <si>
+    <t>CPAG22</t>
+  </si>
+  <si>
+    <t>TAAG11</t>
+  </si>
+  <si>
+    <t>RANDRIANASOLO Jean Baptiste de la Salle</t>
+  </si>
+  <si>
+    <t>TNRDM11</t>
+  </si>
+  <si>
+    <t>TIRDM11</t>
+  </si>
+  <si>
+    <t>TBRDM11</t>
+  </si>
+  <si>
+    <t>RANIVOARISOA Philippine</t>
+  </si>
+  <si>
+    <t>221 000 Ar</t>
+  </si>
+  <si>
+    <t>TBMG11</t>
+  </si>
+  <si>
+    <t>TGMG11</t>
+  </si>
+  <si>
+    <t>TAMG22</t>
+  </si>
+  <si>
+    <t>CPMG12</t>
+  </si>
+  <si>
+    <t>TVMG11</t>
+  </si>
+  <si>
+    <t>RASOAMAMPIONONA Jeanne Lauréane</t>
+  </si>
+  <si>
+    <t>Productions végétales 1er groupe d'épreuve</t>
+  </si>
+  <si>
+    <t>TVPV11</t>
+  </si>
+  <si>
+    <t>TGPV11</t>
+  </si>
+  <si>
+    <t>Productions animales 1er groupe d'épreuve</t>
+  </si>
+  <si>
+    <t>TGPA11</t>
+  </si>
+  <si>
+    <t>RASOAMANAHIRA Rosine Julie</t>
+  </si>
+  <si>
+    <t>224 800 Ar</t>
+  </si>
+  <si>
+    <t>TRFR11</t>
+  </si>
+  <si>
+    <t>SSFR11</t>
+  </si>
+  <si>
+    <t>CGFR14/CGFR24/CGFR34/CGFR44</t>
+  </si>
+  <si>
+    <t>RASOANIAINASARA Natacha Annie</t>
+  </si>
+  <si>
+    <t>179 800 Ar</t>
+  </si>
+  <si>
+    <t>CGAG24/CGAG44</t>
+  </si>
+  <si>
+    <t>46 800 Ar</t>
+  </si>
+  <si>
+    <t>TOAG11</t>
+  </si>
+  <si>
+    <t>TAAG12</t>
+  </si>
+  <si>
+    <t>TNAG11</t>
+  </si>
+  <si>
+    <t>RASOANOMENJANAHARY Louinaise Revino</t>
+  </si>
+  <si>
+    <t>TBAG11</t>
+  </si>
+  <si>
+    <t>TLAG11</t>
+  </si>
+  <si>
+    <t>TMAG11</t>
+  </si>
+  <si>
+    <t>RATEFIARIVONY Mamisoa</t>
+  </si>
+  <si>
+    <t>EPST11</t>
+  </si>
+  <si>
+    <t>EPSC22</t>
+  </si>
+  <si>
+    <t>RATIARAY Nomenjanahary Hasina</t>
+  </si>
+  <si>
+    <t>367 400 Ar</t>
+  </si>
+  <si>
+    <t>CPFR12/CPFR22</t>
+  </si>
+  <si>
+    <t>TBFR11</t>
+  </si>
+  <si>
+    <t>PPFR11</t>
+  </si>
+  <si>
+    <t>TMFR11</t>
+  </si>
+  <si>
+    <t>TNFR11</t>
+  </si>
+  <si>
+    <t>TLFR11</t>
+  </si>
+  <si>
+    <t>TVFR11</t>
+  </si>
+  <si>
+    <t>TOFR11</t>
+  </si>
+  <si>
+    <t>RATSIAMBINA Edit Pierre</t>
+  </si>
+  <si>
+    <t>Géométrie Descriptive</t>
+  </si>
+  <si>
+    <t>TBGB11</t>
+  </si>
+  <si>
+    <t>TBTCN11</t>
+  </si>
+  <si>
+    <t>TBDS11</t>
+  </si>
+  <si>
+    <t>TNGB11</t>
+  </si>
+  <si>
+    <t>RAYMONDE  Justine Renée</t>
+  </si>
+  <si>
+    <t>317 600 Ar</t>
+  </si>
+  <si>
+    <t>Comptabilité - Etude de cas</t>
+  </si>
+  <si>
+    <t>CGCB14/CGCB24/CGCB34/CGCB44</t>
+  </si>
+  <si>
+    <t>Comptabilité</t>
+  </si>
+  <si>
+    <t>TRCO11</t>
+  </si>
+  <si>
+    <t>CGMT14/CGMT24/CGMT34/CGMT44</t>
+  </si>
+  <si>
+    <t>RAZAFIMAMONJY Verohanta Aurélie</t>
+  </si>
+  <si>
+    <t>405 600 Ar</t>
+  </si>
+  <si>
+    <t>Statistiques</t>
+  </si>
+  <si>
+    <t>CGST14/CGST24/CGST34/CGST44</t>
+  </si>
+  <si>
+    <t>Mathématiques Financières</t>
+  </si>
+  <si>
+    <t>TRMF11</t>
+  </si>
+  <si>
+    <t>Economie</t>
+  </si>
+  <si>
+    <t>CGECO14/CGECO24/CGECO34/CGECO44</t>
+  </si>
+  <si>
+    <t>SSECO11</t>
+  </si>
+  <si>
+    <t>TRECO11</t>
+  </si>
+  <si>
+    <t>RAZAFIMAMONJY Andrianirina Lalason Dieu Donnée</t>
+  </si>
+  <si>
+    <t>TCMT11</t>
+  </si>
+  <si>
+    <t>TIMT11</t>
+  </si>
+  <si>
+    <t>RAZAFIMANDIMBY Tsiarake</t>
+  </si>
+  <si>
+    <t>116 900 Ar</t>
+  </si>
+  <si>
+    <t>TAFR12/TAFR22</t>
+  </si>
+  <si>
+    <t>TGFR11</t>
+  </si>
+  <si>
+    <t>RAZANAKOTO Hentoah</t>
+  </si>
+  <si>
+    <t>TNAL11</t>
+  </si>
+  <si>
+    <t>RAZANAMALALA Hasinanahary Stéphanie</t>
+  </si>
+  <si>
+    <t>Correspondance Commerciale</t>
+  </si>
+  <si>
+    <t>TRCCO11</t>
+  </si>
+  <si>
+    <t>Techniques Commerciales</t>
+  </si>
+  <si>
+    <t>TRTC11</t>
+  </si>
+  <si>
+    <t>REFALOMANANTSOA Fahiza Fidelis</t>
+  </si>
+  <si>
+    <t>S.V.T</t>
+  </si>
+  <si>
+    <t>TGST11</t>
+  </si>
+  <si>
+    <t>TVST11</t>
+  </si>
+  <si>
+    <t>TGPC11</t>
+  </si>
+  <si>
+    <t>TVPC11</t>
+  </si>
+  <si>
+    <t>REMORONIAINA Léonarman Albin</t>
+  </si>
+  <si>
+    <t>Mesures - Essais</t>
+  </si>
+  <si>
+    <t>TLME11</t>
+  </si>
+  <si>
+    <t>Electrotechnique</t>
+  </si>
+  <si>
+    <t>TLELC11</t>
+  </si>
+  <si>
+    <t>TLTCN11</t>
+  </si>
+  <si>
+    <t>REVOATSE Andriantsilavo Hugues</t>
+  </si>
+  <si>
+    <t>89 000 Ar</t>
+  </si>
+  <si>
+    <t>TAMT11</t>
+  </si>
+  <si>
+    <t>TRMT11</t>
+  </si>
+  <si>
+    <t>SOLOMAMPIONONA Andry Fanambinana</t>
+  </si>
+  <si>
+    <t>220 000 Ar</t>
+  </si>
+  <si>
+    <t>Corps Flottants</t>
+  </si>
+  <si>
+    <t>TNCF11</t>
+  </si>
+  <si>
+    <t>TNDS11</t>
+  </si>
+  <si>
+    <t>Initiation à l'Entrepreneuriat</t>
+  </si>
+  <si>
+    <t>TNIE11</t>
+  </si>
+  <si>
+    <t>Initiation à l'Entrepreunariat</t>
+  </si>
+  <si>
+    <t>TBIE11</t>
+  </si>
+  <si>
+    <t>TNTCN11</t>
+  </si>
+  <si>
+    <t>TAHIENASY Elie Abelistin</t>
+  </si>
+  <si>
+    <t>178 000 Ar</t>
+  </si>
+  <si>
+    <t>TIPC11</t>
+  </si>
+  <si>
+    <t>TCPC11</t>
+  </si>
+  <si>
+    <t>CPPC12</t>
+  </si>
+  <si>
+    <t>TAPC12</t>
+  </si>
+  <si>
+    <t>TAMINDRAINY Justin</t>
+  </si>
+  <si>
+    <t>CCPER22</t>
+  </si>
+  <si>
+    <t>CPTCN22</t>
+  </si>
+  <si>
+    <t>TELOLAHY Jeanniel Davy</t>
+  </si>
+  <si>
+    <t>TIARO Gabriel Noah</t>
+  </si>
+  <si>
+    <t>Construction Rurale</t>
+  </si>
+  <si>
+    <t>TGCR11</t>
+  </si>
+  <si>
+    <t>TVCR11</t>
+  </si>
+  <si>
+    <t>TVPA11</t>
+  </si>
+  <si>
+    <t>TVECO11</t>
+  </si>
+  <si>
+    <t>TGECO11</t>
+  </si>
+  <si>
+    <t>TOVOSON NIRIKO Jean Chrisostome Rapo</t>
+  </si>
+  <si>
+    <t>189 800 Ar</t>
+  </si>
+  <si>
+    <t>TATDC12/TATDC22</t>
+  </si>
+  <si>
+    <t>TAAR12/TAAR22</t>
+  </si>
+  <si>
+    <t>TATP11</t>
+  </si>
+  <si>
+    <t>TSIANKENY Roseline Mahasondrotsy</t>
+  </si>
+  <si>
+    <t>Droit Fiscal</t>
+  </si>
+  <si>
+    <t>CGDF14/CGDF24/CGDF34/CGDF2</t>
+  </si>
+  <si>
+    <t>VELOMITAHY Mahafaly</t>
+  </si>
+  <si>
+    <t>TORDM11</t>
+  </si>
+  <si>
+    <t>VOLOLONIANINA RAVELOSON Patricia</t>
+  </si>
+  <si>
+    <t>T.E. Dactylographie-Vitesse</t>
+  </si>
+  <si>
+    <t>SSTDV11</t>
+  </si>
+  <si>
+    <t>T.E. Mise au net</t>
+  </si>
+  <si>
+    <t>SSMN11</t>
+  </si>
+  <si>
+    <t>Méthodes Administratives et Commerciales</t>
+  </si>
+  <si>
+    <t>SSADC11</t>
+  </si>
+  <si>
+    <t>ZANDRA RADOSOA Bruno</t>
+  </si>
+  <si>
+    <t>Initiation Juridique</t>
+  </si>
+  <si>
+    <t>TRIJ11</t>
+  </si>
+  <si>
+    <t>SSDS11</t>
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>9 754 900 Ar</t>
   </si>
 </sst>
 </file>
@@ -128,7 +1169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -137,6 +1178,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +1523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G320"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
@@ -638,15 +1685,15 @@
         <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3">
-        <v>45900</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -660,8 +1707,8 @@
       <c r="F15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="3">
-        <v>45900</v>
+      <c r="G15" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -669,45 +1716,68 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>51</v>
-      </c>
-      <c r="F16">
-        <v>45900</v>
+        <v>21</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3">
-        <v>88000</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="3">
-        <v>88000</v>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -715,19 +1785,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>45</v>
-      </c>
-      <c r="F19">
-        <v>44000</v>
+        <v>28</v>
+      </c>
+      <c r="E19" s="4">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
@@ -738,45 +1808,5634 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="E20" s="4">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="4">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="4">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="4">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="4">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="4">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="4">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
         <v>45</v>
       </c>
-      <c r="F20">
-        <v>44000</v>
-      </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="4">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="4">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="4">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="4">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="4">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="4">
+        <v>48</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="4">
+        <v>48</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="4">
+        <v>48</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="4">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="4">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="4">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="4">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="4">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="4">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="4">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="4">
+        <v>40</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="4">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="4">
+        <v>66</v>
+      </c>
+      <c r="F65" t="s">
+        <v>45</v>
+      </c>
+      <c r="G65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="4">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" s="4">
+        <v>50</v>
+      </c>
+      <c r="F67" t="s">
+        <v>103</v>
+      </c>
+      <c r="G67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" s="4">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="4">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="4">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" t="s">
+        <v>109</v>
+      </c>
+      <c r="E71" s="4">
+        <v>18</v>
+      </c>
+      <c r="F71" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" s="4">
+        <v>50</v>
+      </c>
+      <c r="F72" t="s">
+        <v>103</v>
+      </c>
+      <c r="G72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="4">
+        <v>50</v>
+      </c>
+      <c r="F73" t="s">
+        <v>103</v>
+      </c>
+      <c r="G73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" s="4">
+        <v>16</v>
+      </c>
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="4">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" t="s">
+        <v>119</v>
+      </c>
+      <c r="E78" s="4">
+        <v>102</v>
+      </c>
+      <c r="F78" t="s">
+        <v>120</v>
+      </c>
+      <c r="G78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" s="4">
+        <v>3</v>
+      </c>
+      <c r="F79" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="4">
+        <v>134</v>
+      </c>
+      <c r="F82" t="s">
+        <v>127</v>
+      </c>
+      <c r="G82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83" s="4">
+        <v>50</v>
+      </c>
+      <c r="F83" t="s">
+        <v>103</v>
+      </c>
+      <c r="G83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="4">
+        <v>152</v>
+      </c>
+      <c r="F86" t="s">
+        <v>130</v>
+      </c>
+      <c r="G86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89" s="4">
+        <v>100</v>
+      </c>
+      <c r="F89" t="s">
+        <v>136</v>
+      </c>
+      <c r="G89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" t="s">
+        <v>137</v>
+      </c>
+      <c r="E90" s="4">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>73</v>
+      </c>
+      <c r="C91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" t="s">
+        <v>138</v>
+      </c>
+      <c r="E91" s="4">
+        <v>50</v>
+      </c>
+      <c r="F91" t="s">
+        <v>103</v>
+      </c>
+      <c r="G91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>141</v>
+      </c>
+      <c r="E94" s="4">
+        <v>8</v>
+      </c>
+      <c r="F94" t="s">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D95" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" s="4">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" s="4">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" s="4">
+        <v>50</v>
+      </c>
+      <c r="F97" t="s">
+        <v>103</v>
+      </c>
+      <c r="G97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100" t="s">
+        <v>147</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" t="s">
+        <v>75</v>
+      </c>
+      <c r="D101" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" s="4">
+        <v>3</v>
+      </c>
+      <c r="F101" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" t="s">
+        <v>151</v>
+      </c>
+      <c r="E104" s="4">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" t="s">
+        <v>152</v>
+      </c>
+      <c r="E105" s="4">
+        <v>31</v>
+      </c>
+      <c r="F105" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>150</v>
+      </c>
+      <c r="C106" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" t="s">
+        <v>153</v>
+      </c>
+      <c r="E106" s="4">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="4">
+        <v>16</v>
+      </c>
+      <c r="F107" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" t="s">
+        <v>157</v>
+      </c>
+      <c r="E110" s="4">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>91</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>158</v>
+      </c>
+      <c r="E111" s="4">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112" t="s">
+        <v>75</v>
+      </c>
+      <c r="D112" t="s">
+        <v>159</v>
+      </c>
+      <c r="E112" s="4">
+        <v>3</v>
+      </c>
+      <c r="F112" t="s">
+        <v>22</v>
+      </c>
+      <c r="G112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C113" t="s">
+        <v>43</v>
+      </c>
+      <c r="D113" t="s">
+        <v>160</v>
+      </c>
+      <c r="E113" s="4">
+        <v>50</v>
+      </c>
+      <c r="F113" t="s">
+        <v>103</v>
+      </c>
+      <c r="G113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114" t="s">
+        <v>161</v>
+      </c>
+      <c r="E114" s="4">
+        <v>3</v>
+      </c>
+      <c r="F114" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" t="s">
+        <v>43</v>
+      </c>
+      <c r="D115" t="s">
+        <v>162</v>
+      </c>
+      <c r="E115" s="4">
+        <v>50</v>
+      </c>
+      <c r="F115" t="s">
+        <v>103</v>
+      </c>
+      <c r="G115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" t="s">
+        <v>165</v>
+      </c>
+      <c r="E118" s="4">
+        <v>19</v>
+      </c>
+      <c r="F118" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" t="s">
+        <v>167</v>
+      </c>
+      <c r="E119" s="4">
+        <v>19</v>
+      </c>
+      <c r="F119" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>169</v>
+      </c>
+      <c r="C122" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" t="s">
+        <v>170</v>
+      </c>
+      <c r="E122" s="4">
+        <v>21</v>
+      </c>
+      <c r="F122" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>171</v>
+      </c>
+      <c r="C123" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" t="s">
+        <v>172</v>
+      </c>
+      <c r="E123" s="4">
+        <v>4</v>
+      </c>
+      <c r="F123" t="s">
+        <v>22</v>
+      </c>
+      <c r="G123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>100</v>
+      </c>
+      <c r="C126" t="s">
+        <v>43</v>
+      </c>
+      <c r="D126" t="s">
+        <v>174</v>
+      </c>
+      <c r="E126" s="4">
+        <v>16</v>
+      </c>
+      <c r="F126" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>112</v>
+      </c>
+      <c r="C127" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127" t="s">
+        <v>175</v>
+      </c>
+      <c r="E127" s="4">
+        <v>50</v>
+      </c>
+      <c r="F127" t="s">
+        <v>103</v>
+      </c>
+      <c r="G127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>176</v>
+      </c>
+      <c r="C128" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" t="s">
+        <v>177</v>
+      </c>
+      <c r="E128" s="4">
+        <v>40</v>
+      </c>
+      <c r="F128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>176</v>
+      </c>
+      <c r="C129" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" t="s">
+        <v>178</v>
+      </c>
+      <c r="E129" s="4">
+        <v>32</v>
+      </c>
+      <c r="F129" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>108</v>
+      </c>
+      <c r="C132" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" t="s">
+        <v>180</v>
+      </c>
+      <c r="E132" s="4">
+        <v>10</v>
+      </c>
+      <c r="F132" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>181</v>
+      </c>
+      <c r="C133" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" t="s">
+        <v>182</v>
+      </c>
+      <c r="E133" s="4">
+        <v>19</v>
+      </c>
+      <c r="F133" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>183</v>
+      </c>
+      <c r="C134" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" t="s">
+        <v>184</v>
+      </c>
+      <c r="E134" s="4">
+        <v>19</v>
+      </c>
+      <c r="F134" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>150</v>
+      </c>
+      <c r="C137" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137" t="s">
+        <v>186</v>
+      </c>
+      <c r="E137" s="4">
+        <v>48</v>
+      </c>
+      <c r="F137" t="s">
+        <v>22</v>
+      </c>
+      <c r="G137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>150</v>
+      </c>
+      <c r="C138" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="3">
-        <v>133900</v>
+      <c r="D138" t="s">
+        <v>187</v>
+      </c>
+      <c r="E138" s="4">
+        <v>3</v>
+      </c>
+      <c r="F138" t="s">
+        <v>22</v>
+      </c>
+      <c r="G138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>150</v>
+      </c>
+      <c r="C139" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" t="s">
+        <v>188</v>
+      </c>
+      <c r="E139" s="4">
+        <v>19</v>
+      </c>
+      <c r="F139" t="s">
+        <v>22</v>
+      </c>
+      <c r="G139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>150</v>
+      </c>
+      <c r="C140" t="s">
+        <v>37</v>
+      </c>
+      <c r="D140" t="s">
+        <v>189</v>
+      </c>
+      <c r="E140" s="4">
+        <v>21</v>
+      </c>
+      <c r="F140" t="s">
+        <v>22</v>
+      </c>
+      <c r="G140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>192</v>
+      </c>
+      <c r="C143" t="s">
+        <v>118</v>
+      </c>
+      <c r="D143" t="s">
+        <v>193</v>
+      </c>
+      <c r="E143" s="4">
+        <v>50</v>
+      </c>
+      <c r="F143" t="s">
+        <v>103</v>
+      </c>
+      <c r="G143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144" t="s">
+        <v>66</v>
+      </c>
+      <c r="D144" t="s">
+        <v>194</v>
+      </c>
+      <c r="E144" s="4">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>192</v>
+      </c>
+      <c r="C145" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" t="s">
+        <v>195</v>
+      </c>
+      <c r="E145" s="4">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>192</v>
+      </c>
+      <c r="C146" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" t="s">
+        <v>196</v>
+      </c>
+      <c r="E146" s="4">
+        <v>19</v>
+      </c>
+      <c r="F146" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>192</v>
+      </c>
+      <c r="C147" t="s">
+        <v>75</v>
+      </c>
+      <c r="D147" t="s">
+        <v>197</v>
+      </c>
+      <c r="E147" s="4">
+        <v>3</v>
+      </c>
+      <c r="F147" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>192</v>
+      </c>
+      <c r="C148" t="s">
+        <v>29</v>
+      </c>
+      <c r="D148" t="s">
+        <v>198</v>
+      </c>
+      <c r="E148" s="4">
+        <v>48</v>
+      </c>
+      <c r="F148" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>192</v>
+      </c>
+      <c r="C149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D149" t="s">
+        <v>199</v>
+      </c>
+      <c r="E149" s="4">
+        <v>8</v>
+      </c>
+      <c r="F149" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>192</v>
+      </c>
+      <c r="C150" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150" t="s">
+        <v>200</v>
+      </c>
+      <c r="E150" s="4">
+        <v>50</v>
+      </c>
+      <c r="F150" t="s">
+        <v>103</v>
+      </c>
+      <c r="G150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>192</v>
+      </c>
+      <c r="C153" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" t="s">
+        <v>203</v>
+      </c>
+      <c r="E153" s="4">
+        <v>10</v>
+      </c>
+      <c r="F153" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>192</v>
+      </c>
+      <c r="C154" t="s">
+        <v>43</v>
+      </c>
+      <c r="D154" t="s">
+        <v>204</v>
+      </c>
+      <c r="E154" s="4">
+        <v>16</v>
+      </c>
+      <c r="F154" t="s">
+        <v>22</v>
+      </c>
+      <c r="G154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" t="s">
+        <v>192</v>
+      </c>
+      <c r="C155" t="s">
+        <v>77</v>
+      </c>
+      <c r="D155" t="s">
+        <v>205</v>
+      </c>
+      <c r="E155" s="4">
+        <v>11</v>
+      </c>
+      <c r="F155" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>192</v>
+      </c>
+      <c r="C156" t="s">
+        <v>118</v>
+      </c>
+      <c r="D156" t="s">
+        <v>206</v>
+      </c>
+      <c r="E156" s="4">
+        <v>102</v>
+      </c>
+      <c r="F156" t="s">
+        <v>120</v>
+      </c>
+      <c r="G156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>192</v>
+      </c>
+      <c r="C157" t="s">
+        <v>23</v>
+      </c>
+      <c r="D157" t="s">
+        <v>207</v>
+      </c>
+      <c r="E157" s="4">
+        <v>3</v>
+      </c>
+      <c r="F157" t="s">
+        <v>22</v>
+      </c>
+      <c r="G157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>209</v>
+      </c>
+      <c r="C160" t="s">
+        <v>66</v>
+      </c>
+      <c r="D160" t="s">
+        <v>210</v>
+      </c>
+      <c r="E160" s="4">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>209</v>
+      </c>
+      <c r="C161" t="s">
+        <v>29</v>
+      </c>
+      <c r="D161" t="s">
+        <v>211</v>
+      </c>
+      <c r="E161" s="4">
+        <v>48</v>
+      </c>
+      <c r="F161" t="s">
+        <v>22</v>
+      </c>
+      <c r="G161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>97</v>
+      </c>
+      <c r="C162" t="s">
+        <v>41</v>
+      </c>
+      <c r="D162" t="s">
+        <v>212</v>
+      </c>
+      <c r="E162" s="4">
+        <v>81</v>
+      </c>
+      <c r="F162" t="s">
+        <v>56</v>
+      </c>
+      <c r="G162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
+        <v>164</v>
+      </c>
+      <c r="C165" t="s">
+        <v>31</v>
+      </c>
+      <c r="D165" t="s">
+        <v>214</v>
+      </c>
+      <c r="E165" s="4">
+        <v>8</v>
+      </c>
+      <c r="F165" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>97</v>
+      </c>
+      <c r="C166" t="s">
+        <v>31</v>
+      </c>
+      <c r="D166" t="s">
+        <v>215</v>
+      </c>
+      <c r="E166" s="4">
+        <v>8</v>
+      </c>
+      <c r="F166" t="s">
+        <v>22</v>
+      </c>
+      <c r="G166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>91</v>
+      </c>
+      <c r="C167" t="s">
+        <v>66</v>
+      </c>
+      <c r="D167" t="s">
+        <v>216</v>
+      </c>
+      <c r="E167" s="4">
+        <v>2</v>
+      </c>
+      <c r="F167" t="s">
+        <v>22</v>
+      </c>
+      <c r="G167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>73</v>
+      </c>
+      <c r="C170" t="s">
+        <v>39</v>
+      </c>
+      <c r="D170" t="s">
+        <v>218</v>
+      </c>
+      <c r="E170" s="4">
+        <v>40</v>
+      </c>
+      <c r="F170" t="s">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>73</v>
+      </c>
+      <c r="C171" t="s">
+        <v>35</v>
+      </c>
+      <c r="D171" t="s">
+        <v>219</v>
+      </c>
+      <c r="E171" s="4">
+        <v>32</v>
+      </c>
+      <c r="F171" t="s">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>73</v>
+      </c>
+      <c r="C172" t="s">
+        <v>43</v>
+      </c>
+      <c r="D172" t="s">
+        <v>220</v>
+      </c>
+      <c r="E172" s="4">
+        <v>16</v>
+      </c>
+      <c r="F172" t="s">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" t="s">
+        <v>73</v>
+      </c>
+      <c r="C173" t="s">
+        <v>41</v>
+      </c>
+      <c r="D173" t="s">
+        <v>221</v>
+      </c>
+      <c r="E173" s="4">
+        <v>31</v>
+      </c>
+      <c r="F173" t="s">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>97</v>
+      </c>
+      <c r="C176" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" t="s">
+        <v>223</v>
+      </c>
+      <c r="E176" s="4">
+        <v>3</v>
+      </c>
+      <c r="F176" t="s">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" t="s">
+        <v>97</v>
+      </c>
+      <c r="C177" t="s">
+        <v>66</v>
+      </c>
+      <c r="D177" t="s">
+        <v>224</v>
+      </c>
+      <c r="E177" s="4">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s">
+        <v>22</v>
+      </c>
+      <c r="G177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>97</v>
+      </c>
+      <c r="C178" t="s">
+        <v>37</v>
+      </c>
+      <c r="D178" t="s">
+        <v>225</v>
+      </c>
+      <c r="E178" s="4">
+        <v>21</v>
+      </c>
+      <c r="F178" t="s">
+        <v>22</v>
+      </c>
+      <c r="G178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" t="s">
+        <v>192</v>
+      </c>
+      <c r="C181" t="s">
+        <v>37</v>
+      </c>
+      <c r="D181" t="s">
+        <v>228</v>
+      </c>
+      <c r="E181" s="4">
+        <v>21</v>
+      </c>
+      <c r="F181" t="s">
+        <v>22</v>
+      </c>
+      <c r="G181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>192</v>
+      </c>
+      <c r="C182" t="s">
+        <v>35</v>
+      </c>
+      <c r="D182" t="s">
+        <v>229</v>
+      </c>
+      <c r="E182" s="4">
+        <v>32</v>
+      </c>
+      <c r="F182" t="s">
+        <v>22</v>
+      </c>
+      <c r="G182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>192</v>
+      </c>
+      <c r="C183" t="s">
+        <v>41</v>
+      </c>
+      <c r="D183" t="s">
+        <v>230</v>
+      </c>
+      <c r="E183" s="4">
+        <v>31</v>
+      </c>
+      <c r="F183" t="s">
+        <v>22</v>
+      </c>
+      <c r="G183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>192</v>
+      </c>
+      <c r="C184" t="s">
+        <v>43</v>
+      </c>
+      <c r="D184" t="s">
+        <v>231</v>
+      </c>
+      <c r="E184" s="4">
+        <v>50</v>
+      </c>
+      <c r="F184" t="s">
+        <v>103</v>
+      </c>
+      <c r="G184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>192</v>
+      </c>
+      <c r="C185" t="s">
+        <v>39</v>
+      </c>
+      <c r="D185" t="s">
+        <v>232</v>
+      </c>
+      <c r="E185" s="4">
+        <v>40</v>
+      </c>
+      <c r="F185" t="s">
+        <v>22</v>
+      </c>
+      <c r="G185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>234</v>
+      </c>
+      <c r="C188" t="s">
+        <v>39</v>
+      </c>
+      <c r="D188" t="s">
+        <v>235</v>
+      </c>
+      <c r="E188" s="4">
+        <v>40</v>
+      </c>
+      <c r="F188" t="s">
+        <v>22</v>
+      </c>
+      <c r="G188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>234</v>
+      </c>
+      <c r="C189" t="s">
+        <v>35</v>
+      </c>
+      <c r="D189" t="s">
+        <v>236</v>
+      </c>
+      <c r="E189" s="4">
+        <v>32</v>
+      </c>
+      <c r="F189" t="s">
+        <v>22</v>
+      </c>
+      <c r="G189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" t="s">
+        <v>237</v>
+      </c>
+      <c r="C190" t="s">
+        <v>35</v>
+      </c>
+      <c r="D190" t="s">
+        <v>238</v>
+      </c>
+      <c r="E190" s="4">
+        <v>32</v>
+      </c>
+      <c r="F190" t="s">
+        <v>22</v>
+      </c>
+      <c r="G190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" t="s">
+        <v>146</v>
+      </c>
+      <c r="C193" t="s">
+        <v>77</v>
+      </c>
+      <c r="D193" t="s">
+        <v>241</v>
+      </c>
+      <c r="E193" s="4">
+        <v>11</v>
+      </c>
+      <c r="F193" t="s">
+        <v>22</v>
+      </c>
+      <c r="G193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>146</v>
+      </c>
+      <c r="C194" t="s">
+        <v>20</v>
+      </c>
+      <c r="D194" t="s">
+        <v>242</v>
+      </c>
+      <c r="E194" s="4">
+        <v>8</v>
+      </c>
+      <c r="F194" t="s">
+        <v>22</v>
+      </c>
+      <c r="G194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>146</v>
+      </c>
+      <c r="C195" t="s">
+        <v>118</v>
+      </c>
+      <c r="D195" t="s">
+        <v>243</v>
+      </c>
+      <c r="E195" s="4">
+        <v>152</v>
+      </c>
+      <c r="F195" t="s">
+        <v>130</v>
+      </c>
+      <c r="G195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" t="s">
+        <v>73</v>
+      </c>
+      <c r="C198" t="s">
+        <v>118</v>
+      </c>
+      <c r="D198" t="s">
+        <v>246</v>
+      </c>
+      <c r="E198" s="4">
+        <v>52</v>
+      </c>
+      <c r="F198" t="s">
+        <v>247</v>
+      </c>
+      <c r="G198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" t="s">
+        <v>73</v>
+      </c>
+      <c r="C199" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199" t="s">
+        <v>248</v>
+      </c>
+      <c r="E199" s="4">
+        <v>19</v>
+      </c>
+      <c r="F199" t="s">
+        <v>22</v>
+      </c>
+      <c r="G199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" t="s">
+        <v>73</v>
+      </c>
+      <c r="C200" t="s">
+        <v>41</v>
+      </c>
+      <c r="D200" t="s">
+        <v>249</v>
+      </c>
+      <c r="E200" s="4">
+        <v>50</v>
+      </c>
+      <c r="F200" t="s">
+        <v>103</v>
+      </c>
+      <c r="G200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" t="s">
+        <v>73</v>
+      </c>
+      <c r="C201" t="s">
+        <v>23</v>
+      </c>
+      <c r="D201" t="s">
+        <v>250</v>
+      </c>
+      <c r="E201" s="4">
+        <v>3</v>
+      </c>
+      <c r="F201" t="s">
+        <v>22</v>
+      </c>
+      <c r="G201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s">
+        <v>73</v>
+      </c>
+      <c r="C204" t="s">
+        <v>37</v>
+      </c>
+      <c r="D204" t="s">
+        <v>252</v>
+      </c>
+      <c r="E204" s="4">
+        <v>21</v>
+      </c>
+      <c r="F204" t="s">
+        <v>22</v>
+      </c>
+      <c r="G204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" t="s">
+        <v>73</v>
+      </c>
+      <c r="C205" t="s">
+        <v>29</v>
+      </c>
+      <c r="D205" t="s">
+        <v>253</v>
+      </c>
+      <c r="E205" s="4">
+        <v>48</v>
+      </c>
+      <c r="F205" t="s">
+        <v>22</v>
+      </c>
+      <c r="G205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206" t="s">
+        <v>73</v>
+      </c>
+      <c r="C206" t="s">
+        <v>31</v>
+      </c>
+      <c r="D206" t="s">
+        <v>254</v>
+      </c>
+      <c r="E206" s="4">
+        <v>8</v>
+      </c>
+      <c r="F206" t="s">
+        <v>22</v>
+      </c>
+      <c r="G206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" t="s">
+        <v>124</v>
+      </c>
+      <c r="C209" t="s">
+        <v>125</v>
+      </c>
+      <c r="D209" t="s">
+        <v>256</v>
+      </c>
+      <c r="E209" s="4">
+        <v>8</v>
+      </c>
+      <c r="F209" t="s">
+        <v>22</v>
+      </c>
+      <c r="G209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" t="s">
+        <v>124</v>
+      </c>
+      <c r="C210" t="s">
+        <v>125</v>
+      </c>
+      <c r="D210" t="s">
+        <v>257</v>
+      </c>
+      <c r="E210" s="4">
+        <v>2</v>
+      </c>
+      <c r="F210" t="s">
+        <v>22</v>
+      </c>
+      <c r="G210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" t="s">
+        <v>146</v>
+      </c>
+      <c r="C213" t="s">
+        <v>43</v>
+      </c>
+      <c r="D213" t="s">
+        <v>260</v>
+      </c>
+      <c r="E213" s="4">
+        <v>66</v>
+      </c>
+      <c r="F213" t="s">
+        <v>45</v>
+      </c>
+      <c r="G213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" t="s">
+        <v>146</v>
+      </c>
+      <c r="C214" t="s">
+        <v>37</v>
+      </c>
+      <c r="D214" t="s">
+        <v>261</v>
+      </c>
+      <c r="E214" s="4">
+        <v>21</v>
+      </c>
+      <c r="F214" t="s">
+        <v>22</v>
+      </c>
+      <c r="G214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" t="s">
+        <v>146</v>
+      </c>
+      <c r="C215" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215" t="s">
+        <v>262</v>
+      </c>
+      <c r="E215" s="4">
+        <v>10</v>
+      </c>
+      <c r="F215" t="s">
+        <v>22</v>
+      </c>
+      <c r="G215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" t="s">
+        <v>146</v>
+      </c>
+      <c r="C216" t="s">
+        <v>31</v>
+      </c>
+      <c r="D216" t="s">
+        <v>263</v>
+      </c>
+      <c r="E216" s="4">
+        <v>8</v>
+      </c>
+      <c r="F216" t="s">
+        <v>22</v>
+      </c>
+      <c r="G216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" t="s">
+        <v>146</v>
+      </c>
+      <c r="C217" t="s">
+        <v>23</v>
+      </c>
+      <c r="D217" t="s">
+        <v>264</v>
+      </c>
+      <c r="E217" s="4">
+        <v>3</v>
+      </c>
+      <c r="F217" t="s">
+        <v>22</v>
+      </c>
+      <c r="G217" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>7</v>
+      </c>
+      <c r="B218" t="s">
+        <v>146</v>
+      </c>
+      <c r="C218" t="s">
+        <v>29</v>
+      </c>
+      <c r="D218" t="s">
+        <v>265</v>
+      </c>
+      <c r="E218" s="4">
+        <v>48</v>
+      </c>
+      <c r="F218" t="s">
+        <v>22</v>
+      </c>
+      <c r="G218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" t="s">
+        <v>146</v>
+      </c>
+      <c r="C219" t="s">
+        <v>39</v>
+      </c>
+      <c r="D219" t="s">
+        <v>266</v>
+      </c>
+      <c r="E219" s="4">
+        <v>40</v>
+      </c>
+      <c r="F219" t="s">
+        <v>22</v>
+      </c>
+      <c r="G219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" t="s">
+        <v>146</v>
+      </c>
+      <c r="C220" t="s">
+        <v>27</v>
+      </c>
+      <c r="D220" t="s">
+        <v>267</v>
+      </c>
+      <c r="E220" s="4">
+        <v>19</v>
+      </c>
+      <c r="F220" t="s">
+        <v>22</v>
+      </c>
+      <c r="G220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" t="s">
+        <v>269</v>
+      </c>
+      <c r="C223" t="s">
+        <v>37</v>
+      </c>
+      <c r="D223" t="s">
+        <v>270</v>
+      </c>
+      <c r="E223" s="4">
+        <v>21</v>
+      </c>
+      <c r="F223" t="s">
+        <v>22</v>
+      </c>
+      <c r="G223" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224" t="s">
+        <v>91</v>
+      </c>
+      <c r="C224" t="s">
+        <v>37</v>
+      </c>
+      <c r="D224" t="s">
+        <v>271</v>
+      </c>
+      <c r="E224" s="4">
+        <v>21</v>
+      </c>
+      <c r="F224" t="s">
+        <v>22</v>
+      </c>
+      <c r="G224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225" t="s">
+        <v>50</v>
+      </c>
+      <c r="C225" t="s">
+        <v>37</v>
+      </c>
+      <c r="D225" t="s">
+        <v>272</v>
+      </c>
+      <c r="E225" s="4">
+        <v>21</v>
+      </c>
+      <c r="F225" t="s">
+        <v>22</v>
+      </c>
+      <c r="G225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226" t="s">
+        <v>269</v>
+      </c>
+      <c r="C226" t="s">
+        <v>23</v>
+      </c>
+      <c r="D226" t="s">
+        <v>273</v>
+      </c>
+      <c r="E226" s="4">
+        <v>3</v>
+      </c>
+      <c r="F226" t="s">
+        <v>22</v>
+      </c>
+      <c r="G226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" t="s">
+        <v>276</v>
+      </c>
+      <c r="C229" t="s">
+        <v>118</v>
+      </c>
+      <c r="D229" t="s">
+        <v>277</v>
+      </c>
+      <c r="E229" s="4">
+        <v>152</v>
+      </c>
+      <c r="F229" t="s">
+        <v>130</v>
+      </c>
+      <c r="G229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" t="s">
+        <v>278</v>
+      </c>
+      <c r="C230" t="s">
+        <v>77</v>
+      </c>
+      <c r="D230" t="s">
+        <v>279</v>
+      </c>
+      <c r="E230" s="4">
+        <v>11</v>
+      </c>
+      <c r="F230" t="s">
+        <v>22</v>
+      </c>
+      <c r="G230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" t="s">
+        <v>118</v>
+      </c>
+      <c r="D231" t="s">
+        <v>280</v>
+      </c>
+      <c r="E231" s="4">
+        <v>152</v>
+      </c>
+      <c r="F231" t="s">
+        <v>130</v>
+      </c>
+      <c r="G231" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>7</v>
+      </c>
+      <c r="B234" t="s">
+        <v>283</v>
+      </c>
+      <c r="C234" t="s">
+        <v>118</v>
+      </c>
+      <c r="D234" t="s">
+        <v>284</v>
+      </c>
+      <c r="E234" s="4">
+        <v>152</v>
+      </c>
+      <c r="F234" t="s">
+        <v>130</v>
+      </c>
+      <c r="G234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>7</v>
+      </c>
+      <c r="B235" t="s">
+        <v>285</v>
+      </c>
+      <c r="C235" t="s">
+        <v>77</v>
+      </c>
+      <c r="D235" t="s">
+        <v>286</v>
+      </c>
+      <c r="E235" s="4">
+        <v>11</v>
+      </c>
+      <c r="F235" t="s">
+        <v>22</v>
+      </c>
+      <c r="G235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>7</v>
+      </c>
+      <c r="B236" t="s">
+        <v>287</v>
+      </c>
+      <c r="C236" t="s">
+        <v>118</v>
+      </c>
+      <c r="D236" t="s">
+        <v>288</v>
+      </c>
+      <c r="E236" s="4">
+        <v>152</v>
+      </c>
+      <c r="F236" t="s">
+        <v>130</v>
+      </c>
+      <c r="G236" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" t="s">
+        <v>287</v>
+      </c>
+      <c r="C237" t="s">
+        <v>20</v>
+      </c>
+      <c r="D237" t="s">
+        <v>289</v>
+      </c>
+      <c r="E237" s="4">
+        <v>8</v>
+      </c>
+      <c r="F237" t="s">
+        <v>22</v>
+      </c>
+      <c r="G237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238" t="s">
+        <v>287</v>
+      </c>
+      <c r="C238" t="s">
+        <v>77</v>
+      </c>
+      <c r="D238" t="s">
+        <v>290</v>
+      </c>
+      <c r="E238" s="4">
+        <v>11</v>
+      </c>
+      <c r="F238" t="s">
+        <v>22</v>
+      </c>
+      <c r="G238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" t="s">
+        <v>19</v>
+      </c>
+      <c r="C241" t="s">
+        <v>118</v>
+      </c>
+      <c r="D241" t="s">
+        <v>280</v>
+      </c>
+      <c r="E241" s="4">
+        <v>152</v>
+      </c>
+      <c r="F241" t="s">
+        <v>130</v>
+      </c>
+      <c r="G241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" t="s">
+        <v>19</v>
+      </c>
+      <c r="C242" t="s">
+        <v>75</v>
+      </c>
+      <c r="D242" t="s">
+        <v>292</v>
+      </c>
+      <c r="E242" s="4">
+        <v>3</v>
+      </c>
+      <c r="F242" t="s">
+        <v>22</v>
+      </c>
+      <c r="G242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243" t="s">
+        <v>19</v>
+      </c>
+      <c r="C243" t="s">
+        <v>66</v>
+      </c>
+      <c r="D243" t="s">
+        <v>293</v>
+      </c>
+      <c r="E243" s="4">
+        <v>2</v>
+      </c>
+      <c r="F243" t="s">
+        <v>22</v>
+      </c>
+      <c r="G243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>7</v>
+      </c>
+      <c r="B246" t="s">
+        <v>146</v>
+      </c>
+      <c r="C246" t="s">
+        <v>41</v>
+      </c>
+      <c r="D246" t="s">
+        <v>296</v>
+      </c>
+      <c r="E246" s="4">
+        <v>81</v>
+      </c>
+      <c r="F246" t="s">
+        <v>56</v>
+      </c>
+      <c r="G246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>7</v>
+      </c>
+      <c r="B247" t="s">
+        <v>146</v>
+      </c>
+      <c r="C247" t="s">
+        <v>35</v>
+      </c>
+      <c r="D247" t="s">
+        <v>297</v>
+      </c>
+      <c r="E247" s="4">
+        <v>32</v>
+      </c>
+      <c r="F247" t="s">
+        <v>22</v>
+      </c>
+      <c r="G247" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250" t="s">
+        <v>169</v>
+      </c>
+      <c r="C250" t="s">
+        <v>23</v>
+      </c>
+      <c r="D250" t="s">
+        <v>299</v>
+      </c>
+      <c r="E250" s="4">
+        <v>3</v>
+      </c>
+      <c r="F250" t="s">
+        <v>22</v>
+      </c>
+      <c r="G250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>7</v>
+      </c>
+      <c r="B253" t="s">
+        <v>301</v>
+      </c>
+      <c r="C253" t="s">
+        <v>77</v>
+      </c>
+      <c r="D253" t="s">
+        <v>302</v>
+      </c>
+      <c r="E253" s="4">
+        <v>11</v>
+      </c>
+      <c r="F253" t="s">
+        <v>22</v>
+      </c>
+      <c r="G253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>7</v>
+      </c>
+      <c r="B254" t="s">
+        <v>303</v>
+      </c>
+      <c r="C254" t="s">
+        <v>77</v>
+      </c>
+      <c r="D254" t="s">
+        <v>304</v>
+      </c>
+      <c r="E254" s="4">
+        <v>11</v>
+      </c>
+      <c r="F254" t="s">
+        <v>22</v>
+      </c>
+      <c r="G254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>7</v>
+      </c>
+      <c r="B257" t="s">
+        <v>306</v>
+      </c>
+      <c r="C257" t="s">
+        <v>35</v>
+      </c>
+      <c r="D257" t="s">
+        <v>307</v>
+      </c>
+      <c r="E257" s="4">
+        <v>32</v>
+      </c>
+      <c r="F257" t="s">
+        <v>22</v>
+      </c>
+      <c r="G257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>7</v>
+      </c>
+      <c r="B258" t="s">
+        <v>306</v>
+      </c>
+      <c r="C258" t="s">
+        <v>39</v>
+      </c>
+      <c r="D258" t="s">
+        <v>308</v>
+      </c>
+      <c r="E258" s="4">
+        <v>40</v>
+      </c>
+      <c r="F258" t="s">
+        <v>22</v>
+      </c>
+      <c r="G258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>7</v>
+      </c>
+      <c r="B259" t="s">
+        <v>150</v>
+      </c>
+      <c r="C259" t="s">
+        <v>35</v>
+      </c>
+      <c r="D259" t="s">
+        <v>309</v>
+      </c>
+      <c r="E259" s="4">
+        <v>32</v>
+      </c>
+      <c r="F259" t="s">
+        <v>22</v>
+      </c>
+      <c r="G259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>7</v>
+      </c>
+      <c r="B260" t="s">
+        <v>150</v>
+      </c>
+      <c r="C260" t="s">
+        <v>39</v>
+      </c>
+      <c r="D260" t="s">
+        <v>310</v>
+      </c>
+      <c r="E260" s="4">
+        <v>40</v>
+      </c>
+      <c r="F260" t="s">
+        <v>22</v>
+      </c>
+      <c r="G260" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>7</v>
+      </c>
+      <c r="B263" t="s">
+        <v>312</v>
+      </c>
+      <c r="C263" t="s">
+        <v>29</v>
+      </c>
+      <c r="D263" t="s">
+        <v>313</v>
+      </c>
+      <c r="E263" s="4">
+        <v>48</v>
+      </c>
+      <c r="F263" t="s">
+        <v>22</v>
+      </c>
+      <c r="G263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>7</v>
+      </c>
+      <c r="B264" t="s">
+        <v>314</v>
+      </c>
+      <c r="C264" t="s">
+        <v>29</v>
+      </c>
+      <c r="D264" t="s">
+        <v>315</v>
+      </c>
+      <c r="E264" s="4">
+        <v>48</v>
+      </c>
+      <c r="F264" t="s">
+        <v>22</v>
+      </c>
+      <c r="G264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265" t="s">
+        <v>91</v>
+      </c>
+      <c r="C265" t="s">
+        <v>29</v>
+      </c>
+      <c r="D265" t="s">
+        <v>316</v>
+      </c>
+      <c r="E265" s="4">
+        <v>48</v>
+      </c>
+      <c r="F265" t="s">
+        <v>22</v>
+      </c>
+      <c r="G265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>7</v>
+      </c>
+      <c r="B268" t="s">
+        <v>19</v>
+      </c>
+      <c r="C268" t="s">
+        <v>41</v>
+      </c>
+      <c r="D268" t="s">
+        <v>319</v>
+      </c>
+      <c r="E268" s="4">
+        <v>50</v>
+      </c>
+      <c r="F268" t="s">
+        <v>103</v>
+      </c>
+      <c r="G268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>7</v>
+      </c>
+      <c r="B269" t="s">
+        <v>19</v>
+      </c>
+      <c r="C269" t="s">
+        <v>77</v>
+      </c>
+      <c r="D269" t="s">
+        <v>320</v>
+      </c>
+      <c r="E269" s="4">
+        <v>11</v>
+      </c>
+      <c r="F269" t="s">
+        <v>22</v>
+      </c>
+      <c r="G269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>7</v>
+      </c>
+      <c r="B272" t="s">
+        <v>323</v>
+      </c>
+      <c r="C272" t="s">
+        <v>23</v>
+      </c>
+      <c r="D272" t="s">
+        <v>324</v>
+      </c>
+      <c r="E272" s="4">
+        <v>3</v>
+      </c>
+      <c r="F272" t="s">
+        <v>22</v>
+      </c>
+      <c r="G272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>7</v>
+      </c>
+      <c r="B273" t="s">
+        <v>50</v>
+      </c>
+      <c r="C273" t="s">
+        <v>23</v>
+      </c>
+      <c r="D273" t="s">
+        <v>325</v>
+      </c>
+      <c r="E273" s="4">
+        <v>3</v>
+      </c>
+      <c r="F273" t="s">
+        <v>22</v>
+      </c>
+      <c r="G273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>7</v>
+      </c>
+      <c r="B274" t="s">
+        <v>326</v>
+      </c>
+      <c r="C274" t="s">
+        <v>23</v>
+      </c>
+      <c r="D274" t="s">
+        <v>327</v>
+      </c>
+      <c r="E274" s="4">
+        <v>3</v>
+      </c>
+      <c r="F274" t="s">
+        <v>22</v>
+      </c>
+      <c r="G274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>7</v>
+      </c>
+      <c r="B275" t="s">
+        <v>328</v>
+      </c>
+      <c r="C275" t="s">
+        <v>37</v>
+      </c>
+      <c r="D275" t="s">
+        <v>329</v>
+      </c>
+      <c r="E275" s="4">
+        <v>21</v>
+      </c>
+      <c r="F275" t="s">
+        <v>22</v>
+      </c>
+      <c r="G275" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>7</v>
+      </c>
+      <c r="B276" t="s">
+        <v>91</v>
+      </c>
+      <c r="C276" t="s">
+        <v>23</v>
+      </c>
+      <c r="D276" t="s">
+        <v>330</v>
+      </c>
+      <c r="E276" s="4">
+        <v>3</v>
+      </c>
+      <c r="F276" t="s">
+        <v>22</v>
+      </c>
+      <c r="G276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>7</v>
+      </c>
+      <c r="B279" t="s">
+        <v>150</v>
+      </c>
+      <c r="C279" t="s">
+        <v>66</v>
+      </c>
+      <c r="D279" t="s">
+        <v>333</v>
+      </c>
+      <c r="E279" s="4">
+        <v>2</v>
+      </c>
+      <c r="F279" t="s">
+        <v>22</v>
+      </c>
+      <c r="G279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>7</v>
+      </c>
+      <c r="B280" t="s">
+        <v>150</v>
+      </c>
+      <c r="C280" t="s">
+        <v>75</v>
+      </c>
+      <c r="D280" t="s">
+        <v>334</v>
+      </c>
+      <c r="E280" s="4">
+        <v>3</v>
+      </c>
+      <c r="F280" t="s">
+        <v>22</v>
+      </c>
+      <c r="G280" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>7</v>
+      </c>
+      <c r="B281" t="s">
+        <v>150</v>
+      </c>
+      <c r="C281" t="s">
+        <v>43</v>
+      </c>
+      <c r="D281" t="s">
+        <v>335</v>
+      </c>
+      <c r="E281" s="4">
+        <v>50</v>
+      </c>
+      <c r="F281" t="s">
+        <v>103</v>
+      </c>
+      <c r="G281" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>7</v>
+      </c>
+      <c r="B282" t="s">
+        <v>150</v>
+      </c>
+      <c r="C282" t="s">
+        <v>41</v>
+      </c>
+      <c r="D282" t="s">
+        <v>336</v>
+      </c>
+      <c r="E282" s="4">
+        <v>50</v>
+      </c>
+      <c r="F282" t="s">
+        <v>103</v>
+      </c>
+      <c r="G282" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>7</v>
+      </c>
+      <c r="B285" t="s">
+        <v>104</v>
+      </c>
+      <c r="C285" t="s">
+        <v>43</v>
+      </c>
+      <c r="D285" t="s">
+        <v>338</v>
+      </c>
+      <c r="E285" s="4">
+        <v>16</v>
+      </c>
+      <c r="F285" t="s">
+        <v>22</v>
+      </c>
+      <c r="G285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>7</v>
+      </c>
+      <c r="B286" t="s">
+        <v>91</v>
+      </c>
+      <c r="C286" t="s">
+        <v>43</v>
+      </c>
+      <c r="D286" t="s">
+        <v>339</v>
+      </c>
+      <c r="E286" s="4">
+        <v>16</v>
+      </c>
+      <c r="F286" t="s">
+        <v>22</v>
+      </c>
+      <c r="G286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>7</v>
+      </c>
+      <c r="B287" t="s">
+        <v>108</v>
+      </c>
+      <c r="C287" t="s">
+        <v>43</v>
+      </c>
+      <c r="D287" t="s">
+        <v>109</v>
+      </c>
+      <c r="E287" s="4">
+        <v>7</v>
+      </c>
+      <c r="F287" t="s">
+        <v>22</v>
+      </c>
+      <c r="G287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>7</v>
+      </c>
+      <c r="B290" t="s">
+        <v>124</v>
+      </c>
+      <c r="C290" t="s">
+        <v>77</v>
+      </c>
+      <c r="D290" t="s">
+        <v>256</v>
+      </c>
+      <c r="E290" s="4">
+        <v>15</v>
+      </c>
+      <c r="F290" t="s">
+        <v>22</v>
+      </c>
+      <c r="G290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>7</v>
+      </c>
+      <c r="B293" t="s">
+        <v>342</v>
+      </c>
+      <c r="C293" t="s">
+        <v>35</v>
+      </c>
+      <c r="D293" t="s">
+        <v>343</v>
+      </c>
+      <c r="E293" s="4">
+        <v>32</v>
+      </c>
+      <c r="F293" t="s">
+        <v>22</v>
+      </c>
+      <c r="G293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>7</v>
+      </c>
+      <c r="B294" t="s">
+        <v>342</v>
+      </c>
+      <c r="C294" t="s">
+        <v>39</v>
+      </c>
+      <c r="D294" t="s">
+        <v>344</v>
+      </c>
+      <c r="E294" s="4">
+        <v>40</v>
+      </c>
+      <c r="F294" t="s">
+        <v>22</v>
+      </c>
+      <c r="G294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>7</v>
+      </c>
+      <c r="B295" t="s">
+        <v>237</v>
+      </c>
+      <c r="C295" t="s">
+        <v>39</v>
+      </c>
+      <c r="D295" t="s">
+        <v>345</v>
+      </c>
+      <c r="E295" s="4">
+        <v>40</v>
+      </c>
+      <c r="F295" t="s">
+        <v>22</v>
+      </c>
+      <c r="G295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>7</v>
+      </c>
+      <c r="B296" t="s">
+        <v>287</v>
+      </c>
+      <c r="C296" t="s">
+        <v>39</v>
+      </c>
+      <c r="D296" t="s">
+        <v>346</v>
+      </c>
+      <c r="E296" s="4">
+        <v>40</v>
+      </c>
+      <c r="F296" t="s">
+        <v>22</v>
+      </c>
+      <c r="G296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>7</v>
+      </c>
+      <c r="B297" t="s">
+        <v>287</v>
+      </c>
+      <c r="C297" t="s">
+        <v>35</v>
+      </c>
+      <c r="D297" t="s">
+        <v>347</v>
+      </c>
+      <c r="E297" s="4">
+        <v>32</v>
+      </c>
+      <c r="F297" t="s">
+        <v>22</v>
+      </c>
+      <c r="G297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>7</v>
+      </c>
+      <c r="B300" t="s">
+        <v>164</v>
+      </c>
+      <c r="C300" t="s">
+        <v>41</v>
+      </c>
+      <c r="D300" t="s">
+        <v>350</v>
+      </c>
+      <c r="E300" s="4">
+        <v>81</v>
+      </c>
+      <c r="F300" t="s">
+        <v>56</v>
+      </c>
+      <c r="G300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>7</v>
+      </c>
+      <c r="B301" t="s">
+        <v>59</v>
+      </c>
+      <c r="C301" t="s">
+        <v>41</v>
+      </c>
+      <c r="D301" t="s">
+        <v>351</v>
+      </c>
+      <c r="E301" s="4">
+        <v>81</v>
+      </c>
+      <c r="F301" t="s">
+        <v>56</v>
+      </c>
+      <c r="G301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>7</v>
+      </c>
+      <c r="B302" t="s">
+        <v>54</v>
+      </c>
+      <c r="C302" t="s">
+        <v>41</v>
+      </c>
+      <c r="D302" t="s">
+        <v>352</v>
+      </c>
+      <c r="E302" s="4">
+        <v>42</v>
+      </c>
+      <c r="F302" t="s">
+        <v>22</v>
+      </c>
+      <c r="G302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>7</v>
+      </c>
+      <c r="B305" t="s">
+        <v>354</v>
+      </c>
+      <c r="C305" t="s">
+        <v>118</v>
+      </c>
+      <c r="D305" t="s">
+        <v>355</v>
+      </c>
+      <c r="E305" s="4">
+        <v>152</v>
+      </c>
+      <c r="F305" t="s">
+        <v>130</v>
+      </c>
+      <c r="G305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>7</v>
+      </c>
+      <c r="B308" t="s">
+        <v>97</v>
+      </c>
+      <c r="C308" t="s">
+        <v>27</v>
+      </c>
+      <c r="D308" t="s">
+        <v>357</v>
+      </c>
+      <c r="E308" s="4">
+        <v>19</v>
+      </c>
+      <c r="F308" t="s">
+        <v>22</v>
+      </c>
+      <c r="G308" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>7</v>
+      </c>
+      <c r="B311" t="s">
+        <v>359</v>
+      </c>
+      <c r="C311" t="s">
+        <v>20</v>
+      </c>
+      <c r="D311" t="s">
+        <v>360</v>
+      </c>
+      <c r="E311" s="4">
+        <v>8</v>
+      </c>
+      <c r="F311" t="s">
+        <v>22</v>
+      </c>
+      <c r="G311" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>7</v>
+      </c>
+      <c r="B312" t="s">
+        <v>361</v>
+      </c>
+      <c r="C312" t="s">
+        <v>20</v>
+      </c>
+      <c r="D312" t="s">
+        <v>362</v>
+      </c>
+      <c r="E312" s="4">
+        <v>8</v>
+      </c>
+      <c r="F312" t="s">
+        <v>22</v>
+      </c>
+      <c r="G312" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>7</v>
+      </c>
+      <c r="B313" t="s">
+        <v>363</v>
+      </c>
+      <c r="C313" t="s">
+        <v>20</v>
+      </c>
+      <c r="D313" t="s">
+        <v>364</v>
+      </c>
+      <c r="E313" s="4">
+        <v>8</v>
+      </c>
+      <c r="F313" t="s">
+        <v>22</v>
+      </c>
+      <c r="G313" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>7</v>
+      </c>
+      <c r="B316" t="s">
+        <v>366</v>
+      </c>
+      <c r="C316" t="s">
+        <v>77</v>
+      </c>
+      <c r="D316" t="s">
+        <v>367</v>
+      </c>
+      <c r="E316" s="4">
+        <v>11</v>
+      </c>
+      <c r="F316" t="s">
+        <v>22</v>
+      </c>
+      <c r="G316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>7</v>
+      </c>
+      <c r="B317" t="s">
+        <v>131</v>
+      </c>
+      <c r="C317" t="s">
+        <v>20</v>
+      </c>
+      <c r="D317" t="s">
+        <v>368</v>
+      </c>
+      <c r="E317" s="4">
+        <v>8</v>
+      </c>
+      <c r="F317" t="s">
+        <v>22</v>
+      </c>
+      <c r="G317" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>7</v>
+      </c>
+      <c r="B318" t="s">
+        <v>131</v>
+      </c>
+      <c r="C318" t="s">
+        <v>118</v>
+      </c>
+      <c r="D318" t="s">
+        <v>132</v>
+      </c>
+      <c r="E318" s="4">
+        <v>152</v>
+      </c>
+      <c r="F318" t="s">
+        <v>130</v>
+      </c>
+      <c r="G318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G320" s="5" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
